--- a/CFAS/CFAS/bin/Debug/input.xlsx
+++ b/CFAS/CFAS/bin/Debug/input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Projects\Game\testDrawTree\testDrawTree\testGUI\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Владислав Бакшанский\Desktop\Projects\git\CFAS\CFAS\CFAS\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -389,8 +389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
